--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyled\Documents\github\EmailChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DD2FA58C-921A-40D5-9969-6D1509F5E62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B66F2BD6-A1F1-403E-9C01-CA04A76DA2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{1E0104B7-310E-4848-B6B1-D0513DFEDE2B}"/>
   </bookViews>
   <sheets>
     <sheet name="tests" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tests!$A$1:$G$302</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1196">
   <si>
     <t>amp</t>
   </si>
@@ -3188,138 +3187,6 @@
     <t>css</t>
   </si>
   <si>
-    <t>[abbr]</t>
-  </si>
-  <si>
-    <t>[acronym]</t>
-  </si>
-  <si>
-    <t>[audio]</t>
-  </si>
-  <si>
-    <t>[bdi]</t>
-  </si>
-  <si>
-    <t>[blockquote]</t>
-  </si>
-  <si>
-    <t>[body]</t>
-  </si>
-  <si>
-    <t>[button type="reset"]</t>
-  </si>
-  <si>
-    <t>[button type="submit"]</t>
-  </si>
-  <si>
-    <t>[code]</t>
-  </si>
-  <si>
-    <t>[del]</t>
-  </si>
-  <si>
-    <t>[dfn]</t>
-  </si>
-  <si>
-    <t>[dialog]</t>
-  </si>
-  <si>
-    <t>[div]</t>
-  </si>
-  <si>
-    <t>[form]</t>
-  </si>
-  <si>
-    <t>[hr]</t>
-  </si>
-  <si>
-    <t>[img]</t>
-  </si>
-  <si>
-    <t>[input type="checkbox"]</t>
-  </si>
-  <si>
-    <t>[input type="hidden"]</t>
-  </si>
-  <si>
-    <t>[input type="radio"]</t>
-  </si>
-  <si>
-    <t>[input type="reset"]</t>
-  </si>
-  <si>
-    <t>[input type="submit"]</t>
-  </si>
-  <si>
-    <t>[input type="text"]</t>
-  </si>
-  <si>
-    <t>[link]</t>
-  </si>
-  <si>
-    <t>[marquee]</t>
-  </si>
-  <si>
-    <t>[meter]</t>
-  </si>
-  <si>
-    <t>[object]</t>
-  </si>
-  <si>
-    <t>[p]</t>
-  </si>
-  <si>
-    <t>[picture]</t>
-  </si>
-  <si>
-    <t>[pre]</t>
-  </si>
-  <si>
-    <t>[progress]</t>
-  </si>
-  <si>
-    <t>[rp]</t>
-  </si>
-  <si>
-    <t>[rt]</t>
-  </si>
-  <si>
-    <t>[ruby]</t>
-  </si>
-  <si>
-    <t>[select]</t>
-  </si>
-  <si>
-    <t>[small]</t>
-  </si>
-  <si>
-    <t>[span]</t>
-  </si>
-  <si>
-    <t>[strike]</t>
-  </si>
-  <si>
-    <t>[strong]</t>
-  </si>
-  <si>
-    <t>[style]</t>
-  </si>
-  <si>
-    <t>[table]</t>
-  </si>
-  <si>
-    <t>[textarea]</t>
-  </si>
-  <si>
-    <t>[video]</t>
-  </si>
-  <si>
-    <t>[wbr]</t>
-  </si>
-  <si>
-    <t>Exclude css2</t>
-  </si>
-  <si>
     <t>css-prop</t>
   </si>
   <si>
@@ -3410,9 +3277,6 @@
     <t>pc</t>
   </si>
   <si>
-    <t>percent</t>
-  </si>
-  <si>
     <t>pt</t>
   </si>
   <si>
@@ -3726,6 +3590,27 @@
   </si>
   <si>
     <t>input[type="text"]</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>:has</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ </t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -4569,15 +4454,15 @@
   <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G248" sqref="G248:G253"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4588,19 +4473,19 @@
         <v>1048</v>
       </c>
       <c r="C1" t="s">
-        <v>1097</v>
+        <v>1049</v>
       </c>
       <c r="D1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="G1" t="s">
-        <v>1052</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4610,11 +4495,14 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
         <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -4624,10 +4512,10 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4638,17 +4526,20 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>1054</v>
       </c>
       <c r="F4" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G4" t="s">
         <v>9</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -4658,17 +4549,20 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>1054</v>
       </c>
       <c r="F5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G5" t="s">
         <v>13</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -4678,17 +4572,20 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>1054</v>
       </c>
       <c r="F6" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G6" t="s">
         <v>17</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -4698,17 +4595,20 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>1054</v>
       </c>
       <c r="F7" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G7" t="s">
         <v>21</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -4718,14 +4618,14 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
         <v>27</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -4735,14 +4635,14 @@
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="C9" t="s">
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
         <v>31</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4752,14 +4652,14 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
         <v>19</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -4769,14 +4669,14 @@
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="s">
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
         <v>38</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -4786,14 +4686,14 @@
       <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" t="s">
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
         <v>42</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -4803,14 +4703,14 @@
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="C13" t="s">
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
         <v>38</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -4820,14 +4720,14 @@
       <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="C14" t="s">
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
         <v>49</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -4837,14 +4737,14 @@
       <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="C15" t="s">
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
         <v>53</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -4854,14 +4754,14 @@
       <c r="B16" t="s">
         <v>55</v>
       </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
         <v>38</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -4871,14 +4771,14 @@
       <c r="B17" t="s">
         <v>58</v>
       </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="C17" t="s">
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
         <v>60</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -4888,17 +4788,20 @@
       <c r="B18" t="s">
         <v>62</v>
       </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>1054</v>
       </c>
       <c r="F18" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G18" t="s">
         <v>62</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -4908,17 +4811,20 @@
       <c r="B19" t="s">
         <v>66</v>
       </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>1054</v>
       </c>
       <c r="F19" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G19" t="s">
         <v>66</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -4928,17 +4834,20 @@
       <c r="B20" t="s">
         <v>70</v>
       </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>1054</v>
       </c>
       <c r="F20" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G20" t="s">
         <v>70</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -4948,17 +4857,20 @@
       <c r="B21" t="s">
         <v>73</v>
       </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>1054</v>
       </c>
       <c r="F21" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G21" t="s">
         <v>73</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -4968,17 +4880,20 @@
       <c r="B22" t="s">
         <v>76</v>
       </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>1054</v>
       </c>
       <c r="F22" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G22" t="s">
         <v>76</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -4988,17 +4903,20 @@
       <c r="B23" t="s">
         <v>79</v>
       </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>1054</v>
       </c>
       <c r="F23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G23" t="s">
         <v>79</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -5008,17 +4926,20 @@
       <c r="B24" t="s">
         <v>82</v>
       </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>1054</v>
       </c>
       <c r="F24" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G24" t="s">
         <v>82</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -5028,17 +4949,20 @@
       <c r="B25" t="s">
         <v>85</v>
       </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>1054</v>
       </c>
       <c r="F25" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G25" t="s">
         <v>85</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -5048,17 +4972,20 @@
       <c r="B26" t="s">
         <v>88</v>
       </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>1054</v>
       </c>
       <c r="F26" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G26" t="s">
         <v>88</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -5068,17 +4995,20 @@
       <c r="B27" t="s">
         <v>91</v>
       </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>1054</v>
       </c>
       <c r="F27" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1148</v>
+        <v>1103</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -5088,13 +5018,10 @@
       <c r="B28" t="s">
         <v>94</v>
       </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="C28" t="s">
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5105,17 +5032,20 @@
       <c r="B29" t="s">
         <v>98</v>
       </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>1054</v>
       </c>
       <c r="F29" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G29" t="s">
         <v>98</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -5125,17 +5055,20 @@
       <c r="B30" t="s">
         <v>102</v>
       </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>1054</v>
       </c>
       <c r="F30" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G30" t="s">
         <v>102</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -5145,13 +5078,10 @@
       <c r="B31" t="s">
         <v>106</v>
       </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="C31" t="s">
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5162,13 +5092,10 @@
       <c r="B32" t="s">
         <v>110</v>
       </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="C32" t="s">
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5179,13 +5106,10 @@
       <c r="B33" t="s">
         <v>113</v>
       </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="C33" t="s">
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5196,17 +5120,20 @@
       <c r="B34" t="s">
         <v>116</v>
       </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>1054</v>
       </c>
       <c r="F34" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1100</v>
+        <v>1056</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -5216,17 +5143,20 @@
       <c r="B35" t="s">
         <v>119</v>
       </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>1054</v>
       </c>
       <c r="F35" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1150</v>
+        <v>1105</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -5236,17 +5166,20 @@
       <c r="B36" t="s">
         <v>123</v>
       </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>1054</v>
       </c>
       <c r="F36" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1151</v>
+        <v>1106</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -5256,17 +5189,20 @@
       <c r="B37" t="s">
         <v>127</v>
       </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>1054</v>
       </c>
       <c r="F37" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1149</v>
+        <v>1104</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -5276,17 +5212,20 @@
       <c r="B38" t="s">
         <v>131</v>
       </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
+        <v>1054</v>
       </c>
       <c r="F38" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G38" t="s">
         <v>131</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -5296,17 +5235,20 @@
       <c r="B39" t="s">
         <v>135</v>
       </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>1054</v>
       </c>
       <c r="F39" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G39" t="s">
         <v>135</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -5316,17 +5258,20 @@
       <c r="B40" t="s">
         <v>138</v>
       </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>1054</v>
       </c>
       <c r="F40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G40" t="s">
         <v>138</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -5336,17 +5281,20 @@
       <c r="B41" t="s">
         <v>142</v>
       </c>
+      <c r="C41" t="s">
+        <v>143</v>
+      </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>1054</v>
       </c>
       <c r="F41" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G41" t="s">
         <v>142</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -5356,17 +5304,20 @@
       <c r="B42" t="s">
         <v>145</v>
       </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>1054</v>
       </c>
       <c r="F42" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G42" t="s">
         <v>145</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -5376,17 +5327,20 @@
       <c r="B43" t="s">
         <v>149</v>
       </c>
+      <c r="C43" t="s">
+        <v>150</v>
+      </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>151</v>
+        <v>1054</v>
       </c>
       <c r="F43" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1099</v>
+        <v>1055</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -5396,17 +5350,20 @@
       <c r="B44" t="s">
         <v>153</v>
       </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>1054</v>
       </c>
       <c r="F44" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G44" t="s">
         <v>153</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -5416,17 +5373,20 @@
       <c r="B45" t="s">
         <v>156</v>
       </c>
+      <c r="C45" t="s">
+        <v>157</v>
+      </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>1054</v>
       </c>
       <c r="F45" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1101</v>
+        <v>1057</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -5436,20 +5396,20 @@
       <c r="B46" t="s">
         <v>160</v>
       </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="C46" t="s">
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>162</v>
+        <v>1058</v>
       </c>
       <c r="F46" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1103</v>
+        <v>1059</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -5459,17 +5419,20 @@
       <c r="B47" t="s">
         <v>164</v>
       </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>1078</v>
       </c>
       <c r="F47" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1137</v>
+        <v>1092</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -5479,17 +5442,20 @@
       <c r="B48" t="s">
         <v>168</v>
       </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>1054</v>
       </c>
       <c r="F48" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G48" t="s">
         <v>168</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -5499,14 +5465,14 @@
       <c r="B49" t="s">
         <v>172</v>
       </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="C49" t="s">
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
-      </c>
-      <c r="E49" t="s">
         <v>174</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -5516,14 +5482,14 @@
       <c r="B50" t="s">
         <v>176</v>
       </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="C50" t="s">
+        <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" t="s">
         <v>104</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -5533,14 +5499,14 @@
       <c r="B51" t="s">
         <v>179</v>
       </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="C51" t="s">
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" t="s">
         <v>181</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -5550,17 +5516,20 @@
       <c r="B52" t="s">
         <v>183</v>
       </c>
+      <c r="C52" t="s">
+        <v>184</v>
+      </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>1054</v>
       </c>
       <c r="F52" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G52" t="s">
         <v>183</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -5570,17 +5539,20 @@
       <c r="B53" t="s">
         <v>187</v>
       </c>
+      <c r="C53" t="s">
+        <v>188</v>
+      </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
+        <v>1054</v>
       </c>
       <c r="F53" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G53" t="s">
         <v>187</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -5590,17 +5562,20 @@
       <c r="B54" t="s">
         <v>191</v>
       </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>1054</v>
       </c>
       <c r="F54" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G54" t="s">
         <v>191</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -5610,13 +5585,10 @@
       <c r="B55" t="s">
         <v>194</v>
       </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="C55" t="s">
+        <v>195</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5627,17 +5599,20 @@
       <c r="B56" t="s">
         <v>197</v>
       </c>
+      <c r="C56" t="s">
+        <v>198</v>
+      </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>1054</v>
       </c>
       <c r="F56" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1104</v>
+        <v>1060</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -5647,17 +5622,20 @@
       <c r="B57" t="s">
         <v>200</v>
       </c>
+      <c r="C57" t="s">
+        <v>201</v>
+      </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>1054</v>
       </c>
       <c r="F57" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G57" t="s">
         <v>200</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -5667,17 +5645,20 @@
       <c r="B58" t="s">
         <v>203</v>
       </c>
+      <c r="C58" t="s">
+        <v>204</v>
+      </c>
       <c r="D58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>1054</v>
       </c>
       <c r="F58" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G58" t="s">
         <v>203</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -5687,17 +5668,20 @@
       <c r="B59" t="s">
         <v>207</v>
       </c>
+      <c r="C59" t="s">
+        <v>208</v>
+      </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>1054</v>
       </c>
       <c r="F59" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G59" t="s">
         <v>207</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -5707,17 +5691,20 @@
       <c r="B60" t="s">
         <v>211</v>
       </c>
+      <c r="C60" t="s">
+        <v>212</v>
+      </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
+        <v>1054</v>
       </c>
       <c r="F60" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G60" t="s">
         <v>211</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -5727,17 +5714,20 @@
       <c r="B61" t="s">
         <v>215</v>
       </c>
+      <c r="C61" t="s">
+        <v>216</v>
+      </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
-        <v>217</v>
+        <v>1054</v>
       </c>
       <c r="F61" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G61" t="s">
         <v>215</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -5747,17 +5737,20 @@
       <c r="B62" t="s">
         <v>219</v>
       </c>
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
       <c r="D62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>221</v>
+        <v>1054</v>
       </c>
       <c r="F62" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1105</v>
+        <v>1061</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -5767,17 +5760,20 @@
       <c r="B63" t="s">
         <v>223</v>
       </c>
+      <c r="C63" t="s">
+        <v>224</v>
+      </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E63" t="s">
-        <v>225</v>
+        <v>1078</v>
       </c>
       <c r="F63" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1138</v>
+        <v>1093</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -5787,17 +5783,20 @@
       <c r="B64" t="s">
         <v>227</v>
       </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
       <c r="D64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E64" t="s">
-        <v>229</v>
+        <v>1078</v>
       </c>
       <c r="F64" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1139</v>
+        <v>1094</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -5807,17 +5806,20 @@
       <c r="B65" t="s">
         <v>231</v>
       </c>
+      <c r="C65" t="s">
+        <v>232</v>
+      </c>
       <c r="D65" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E65" t="s">
-        <v>225</v>
+        <v>1078</v>
       </c>
       <c r="F65" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G65" t="s">
-        <v>1140</v>
+        <v>1095</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -5827,17 +5829,20 @@
       <c r="B66" t="s">
         <v>234</v>
       </c>
+      <c r="C66" t="s">
+        <v>235</v>
+      </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
-        <v>225</v>
+        <v>1078</v>
       </c>
       <c r="F66" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G66" t="s">
-        <v>1141</v>
+        <v>1096</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -5847,17 +5852,20 @@
       <c r="B67" t="s">
         <v>237</v>
       </c>
+      <c r="C67" t="s">
+        <v>238</v>
+      </c>
       <c r="D67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E67" t="s">
-        <v>239</v>
+        <v>1054</v>
       </c>
       <c r="F67" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G67" t="s">
         <v>237</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -5867,17 +5875,20 @@
       <c r="B68" t="s">
         <v>241</v>
       </c>
+      <c r="C68" t="s">
+        <v>242</v>
+      </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>1054</v>
       </c>
       <c r="F68" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G68" t="s">
-        <v>1116</v>
+        <v>1072</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -5887,17 +5898,20 @@
       <c r="B69" t="s">
         <v>245</v>
       </c>
+      <c r="C69" t="s">
+        <v>246</v>
+      </c>
       <c r="D69" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E69" t="s">
-        <v>247</v>
+        <v>1054</v>
       </c>
       <c r="F69" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G69" t="s">
-        <v>1106</v>
+        <v>1062</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -5907,17 +5921,20 @@
       <c r="B70" t="s">
         <v>249</v>
       </c>
+      <c r="C70" t="s">
+        <v>250</v>
+      </c>
       <c r="D70" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E70" t="s">
-        <v>251</v>
+        <v>1054</v>
       </c>
       <c r="F70" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G70" t="s">
         <v>249</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -5927,17 +5944,20 @@
       <c r="B71" t="s">
         <v>253</v>
       </c>
+      <c r="C71" t="s">
+        <v>254</v>
+      </c>
       <c r="D71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>1054</v>
       </c>
       <c r="F71" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G71" t="s">
         <v>253</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -5947,17 +5967,20 @@
       <c r="B72" t="s">
         <v>257</v>
       </c>
+      <c r="C72" t="s">
+        <v>258</v>
+      </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E72" t="s">
-        <v>259</v>
+        <v>1054</v>
       </c>
       <c r="F72" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G72" t="s">
         <v>257</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -5967,17 +5990,20 @@
       <c r="B73" t="s">
         <v>261</v>
       </c>
+      <c r="C73" t="s">
+        <v>262</v>
+      </c>
       <c r="D73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>1058</v>
       </c>
       <c r="F73" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G73" t="s">
-        <v>1117</v>
+        <v>1073</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -5987,17 +6013,20 @@
       <c r="B74" t="s">
         <v>265</v>
       </c>
+      <c r="C74" t="s">
+        <v>266</v>
+      </c>
       <c r="D74" t="s">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="E74" t="s">
-        <v>104</v>
+        <v>1054</v>
       </c>
       <c r="F74" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G74" t="s">
         <v>265</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -6007,17 +6036,20 @@
       <c r="B75" t="s">
         <v>268</v>
       </c>
+      <c r="C75" t="s">
+        <v>269</v>
+      </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E75" t="s">
-        <v>270</v>
+        <v>1054</v>
       </c>
       <c r="F75" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G75" t="s">
         <v>268</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -6027,17 +6059,20 @@
       <c r="B76" t="s">
         <v>272</v>
       </c>
+      <c r="C76" t="s">
+        <v>273</v>
+      </c>
       <c r="D76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s">
-        <v>274</v>
+        <v>1054</v>
       </c>
       <c r="F76" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G76" t="s">
         <v>272</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -6047,17 +6082,20 @@
       <c r="B77" t="s">
         <v>276</v>
       </c>
+      <c r="C77" t="s">
+        <v>277</v>
+      </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E77" t="s">
-        <v>278</v>
+        <v>1054</v>
       </c>
       <c r="F77" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G77" t="s">
         <v>276</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -6067,17 +6105,20 @@
       <c r="B78" t="s">
         <v>280</v>
       </c>
+      <c r="C78" t="s">
+        <v>281</v>
+      </c>
       <c r="D78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E78" t="s">
-        <v>282</v>
+        <v>1054</v>
       </c>
       <c r="F78" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G78" t="s">
         <v>280</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -6087,17 +6128,20 @@
       <c r="B79" t="s">
         <v>284</v>
       </c>
+      <c r="C79" t="s">
+        <v>285</v>
+      </c>
       <c r="D79" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>1054</v>
       </c>
       <c r="F79" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G79" t="s">
         <v>284</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -6107,17 +6151,20 @@
       <c r="B80" t="s">
         <v>287</v>
       </c>
+      <c r="C80" t="s">
+        <v>288</v>
+      </c>
       <c r="D80" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E80" t="s">
-        <v>289</v>
+        <v>1054</v>
       </c>
       <c r="F80" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G80" t="s">
         <v>287</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -6127,17 +6174,20 @@
       <c r="B81" t="s">
         <v>291</v>
       </c>
+      <c r="C81" t="s">
+        <v>292</v>
+      </c>
       <c r="D81" t="s">
-        <v>292</v>
+        <v>166</v>
       </c>
       <c r="E81" t="s">
-        <v>166</v>
+        <v>1078</v>
       </c>
       <c r="F81" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G81" t="s">
-        <v>1142</v>
+        <v>1097</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -6147,17 +6197,20 @@
       <c r="B82" t="s">
         <v>294</v>
       </c>
+      <c r="C82" t="s">
+        <v>295</v>
+      </c>
       <c r="D82" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E82" t="s">
-        <v>296</v>
+        <v>1054</v>
       </c>
       <c r="F82" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G82" t="s">
         <v>294</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -6167,17 +6220,20 @@
       <c r="B83" t="s">
         <v>298</v>
       </c>
+      <c r="C83" t="s">
+        <v>299</v>
+      </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E83" t="s">
-        <v>296</v>
+        <v>1054</v>
       </c>
       <c r="F83" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G83" t="s">
         <v>298</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -6187,17 +6243,20 @@
       <c r="B84" t="s">
         <v>301</v>
       </c>
+      <c r="C84" t="s">
+        <v>302</v>
+      </c>
       <c r="D84" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E84" t="s">
-        <v>296</v>
+        <v>1054</v>
       </c>
       <c r="F84" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G84" t="s">
         <v>301</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -6207,17 +6266,20 @@
       <c r="B85" t="s">
         <v>304</v>
       </c>
+      <c r="C85" t="s">
+        <v>305</v>
+      </c>
       <c r="D85" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E85" t="s">
-        <v>296</v>
+        <v>1054</v>
       </c>
       <c r="F85" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G85" t="s">
         <v>304</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -6227,13 +6289,10 @@
       <c r="B86" t="s">
         <v>307</v>
       </c>
-      <c r="C86">
-        <v>1</v>
+      <c r="C86" t="s">
+        <v>308</v>
       </c>
       <c r="D86" t="s">
-        <v>308</v>
-      </c>
-      <c r="E86" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6244,13 +6303,10 @@
       <c r="B87" t="s">
         <v>311</v>
       </c>
-      <c r="C87">
-        <v>1</v>
+      <c r="C87" t="s">
+        <v>312</v>
       </c>
       <c r="D87" t="s">
-        <v>312</v>
-      </c>
-      <c r="E87" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6261,13 +6317,10 @@
       <c r="B88" t="s">
         <v>314</v>
       </c>
-      <c r="C88">
-        <v>1</v>
+      <c r="C88" t="s">
+        <v>315</v>
       </c>
       <c r="D88" t="s">
-        <v>315</v>
-      </c>
-      <c r="E88" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6278,13 +6331,10 @@
       <c r="B89" t="s">
         <v>311</v>
       </c>
-      <c r="C89">
-        <v>1</v>
+      <c r="C89" t="s">
+        <v>317</v>
       </c>
       <c r="D89" t="s">
-        <v>317</v>
-      </c>
-      <c r="E89" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6295,17 +6345,20 @@
       <c r="B90" t="s">
         <v>319</v>
       </c>
+      <c r="C90" t="s">
+        <v>320</v>
+      </c>
       <c r="D90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E90" t="s">
-        <v>321</v>
+        <v>1054</v>
       </c>
       <c r="F90" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G90" t="s">
-        <v>1147</v>
+        <v>1102</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -6315,17 +6368,20 @@
       <c r="B91" t="s">
         <v>323</v>
       </c>
+      <c r="C91" t="s">
+        <v>324</v>
+      </c>
       <c r="D91" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E91" t="s">
-        <v>325</v>
+        <v>1054</v>
       </c>
       <c r="F91" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G91" t="s">
         <v>323</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -6335,17 +6391,20 @@
       <c r="B92" t="s">
         <v>327</v>
       </c>
+      <c r="C92" t="s">
+        <v>328</v>
+      </c>
       <c r="D92" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E92" t="s">
-        <v>329</v>
+        <v>1054</v>
       </c>
       <c r="F92" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G92" t="s">
         <v>327</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -6355,17 +6414,20 @@
       <c r="B93" t="s">
         <v>331</v>
       </c>
+      <c r="C93" t="s">
+        <v>332</v>
+      </c>
       <c r="D93" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="E93" t="s">
-        <v>247</v>
+        <v>1054</v>
       </c>
       <c r="F93" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G93" t="s">
-        <v>1107</v>
+        <v>1063</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -6375,17 +6437,20 @@
       <c r="B94" t="s">
         <v>334</v>
       </c>
+      <c r="C94" t="s">
+        <v>335</v>
+      </c>
       <c r="D94" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E94" t="s">
-        <v>336</v>
+        <v>1054</v>
       </c>
       <c r="F94" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G94" t="s">
         <v>334</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -6395,17 +6460,20 @@
       <c r="B95" t="s">
         <v>338</v>
       </c>
+      <c r="C95" t="s">
+        <v>339</v>
+      </c>
       <c r="D95" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="E95" t="s">
-        <v>247</v>
+        <v>1054</v>
       </c>
       <c r="F95" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G95" t="s">
         <v>338</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -6415,17 +6483,20 @@
       <c r="B96" t="s">
         <v>341</v>
       </c>
+      <c r="C96" t="s">
+        <v>342</v>
+      </c>
       <c r="D96" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E96" t="s">
-        <v>343</v>
+        <v>1054</v>
       </c>
       <c r="F96" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G96" t="s">
         <v>341</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -6435,17 +6506,20 @@
       <c r="B97" t="s">
         <v>345</v>
       </c>
+      <c r="C97" t="s">
+        <v>346</v>
+      </c>
       <c r="D97" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="E97" t="s">
-        <v>247</v>
+        <v>1054</v>
       </c>
       <c r="F97" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G97" t="s">
-        <v>1108</v>
+        <v>1064</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -6455,17 +6529,20 @@
       <c r="B98" t="s">
         <v>348</v>
       </c>
+      <c r="C98" t="s">
+        <v>349</v>
+      </c>
       <c r="D98" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E98" t="s">
-        <v>350</v>
+        <v>1054</v>
       </c>
       <c r="F98" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G98" t="s">
         <v>348</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -6475,17 +6552,20 @@
       <c r="B99" t="s">
         <v>352</v>
       </c>
+      <c r="C99" t="s">
+        <v>353</v>
+      </c>
       <c r="D99" t="s">
-        <v>353</v>
+        <v>247</v>
       </c>
       <c r="E99" t="s">
-        <v>247</v>
+        <v>1054</v>
       </c>
       <c r="F99" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G99" t="s">
-        <v>1109</v>
+        <v>1065</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -6495,17 +6575,20 @@
       <c r="B100" t="s">
         <v>355</v>
       </c>
+      <c r="C100" t="s">
+        <v>356</v>
+      </c>
       <c r="D100" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E100" t="s">
-        <v>357</v>
+        <v>1054</v>
       </c>
       <c r="F100" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G100" t="s">
         <v>355</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -6515,17 +6598,20 @@
       <c r="B101" t="s">
         <v>359</v>
       </c>
+      <c r="C101" t="s">
+        <v>360</v>
+      </c>
       <c r="D101" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E101" t="s">
-        <v>361</v>
+        <v>1078</v>
       </c>
       <c r="F101" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G101" t="s">
-        <v>1123</v>
+        <v>1079</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -6535,14 +6621,14 @@
       <c r="B102" t="s">
         <v>363</v>
       </c>
+      <c r="C102" t="s">
+        <v>364</v>
+      </c>
       <c r="D102" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E102" t="s">
-        <v>365</v>
-      </c>
-      <c r="F102" t="s">
-        <v>1102</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -6552,17 +6638,20 @@
       <c r="B103" t="s">
         <v>367</v>
       </c>
+      <c r="C103" t="s">
+        <v>368</v>
+      </c>
       <c r="D103" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E103" t="s">
-        <v>369</v>
+        <v>1054</v>
       </c>
       <c r="F103" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G103" t="s">
         <v>367</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -6572,17 +6661,20 @@
       <c r="B104" t="s">
         <v>371</v>
       </c>
+      <c r="C104" t="s">
+        <v>372</v>
+      </c>
       <c r="D104" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E104" t="s">
-        <v>369</v>
+        <v>1054</v>
       </c>
       <c r="F104" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G104" t="s">
         <v>371</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -6592,17 +6684,20 @@
       <c r="B105" t="s">
         <v>374</v>
       </c>
+      <c r="C105" t="s">
+        <v>375</v>
+      </c>
       <c r="D105" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="E105" t="s">
-        <v>181</v>
+        <v>1054</v>
       </c>
       <c r="F105" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G105" t="s">
         <v>374</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -6612,17 +6707,20 @@
       <c r="B106" t="s">
         <v>377</v>
       </c>
+      <c r="C106" t="s">
+        <v>378</v>
+      </c>
       <c r="D106" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E106" t="s">
-        <v>379</v>
+        <v>1054</v>
       </c>
       <c r="F106" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G106" t="s">
         <v>377</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -6632,17 +6730,20 @@
       <c r="B107" t="s">
         <v>381</v>
       </c>
+      <c r="C107" t="s">
+        <v>382</v>
+      </c>
       <c r="D107" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E107" t="s">
-        <v>383</v>
+        <v>1054</v>
       </c>
       <c r="F107" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G107" t="s">
         <v>381</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -6652,17 +6753,20 @@
       <c r="B108" t="s">
         <v>385</v>
       </c>
+      <c r="C108" t="s">
+        <v>386</v>
+      </c>
       <c r="D108" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E108" t="s">
-        <v>387</v>
+        <v>1054</v>
       </c>
       <c r="F108" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G108" t="s">
         <v>385</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -6672,17 +6776,20 @@
       <c r="B109" t="s">
         <v>389</v>
       </c>
+      <c r="C109" t="s">
+        <v>390</v>
+      </c>
       <c r="D109" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E109" t="s">
-        <v>391</v>
+        <v>1054</v>
       </c>
       <c r="F109" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G109" t="s">
         <v>389</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -6692,17 +6799,20 @@
       <c r="B110" t="s">
         <v>393</v>
       </c>
+      <c r="C110" t="s">
+        <v>394</v>
+      </c>
       <c r="D110" t="s">
-        <v>394</v>
+        <v>104</v>
       </c>
       <c r="E110" t="s">
-        <v>104</v>
+        <v>1054</v>
       </c>
       <c r="F110" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G110" t="s">
         <v>393</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -6712,13 +6822,10 @@
       <c r="B111" t="s">
         <v>396</v>
       </c>
-      <c r="C111">
-        <v>1</v>
+      <c r="C111" t="s">
+        <v>397</v>
       </c>
       <c r="D111" t="s">
-        <v>397</v>
-      </c>
-      <c r="E111" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6729,13 +6836,10 @@
       <c r="B112" t="s">
         <v>400</v>
       </c>
-      <c r="C112">
-        <v>1</v>
+      <c r="C112" t="s">
+        <v>401</v>
       </c>
       <c r="D112" t="s">
-        <v>401</v>
-      </c>
-      <c r="E112" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6746,13 +6850,10 @@
       <c r="B113" t="s">
         <v>403</v>
       </c>
-      <c r="C113">
-        <v>1</v>
+      <c r="C113" t="s">
+        <v>404</v>
       </c>
       <c r="D113" t="s">
-        <v>404</v>
-      </c>
-      <c r="E113" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6763,17 +6864,20 @@
       <c r="B114" t="s">
         <v>406</v>
       </c>
+      <c r="C114" t="s">
+        <v>407</v>
+      </c>
       <c r="D114" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E114" t="s">
-        <v>408</v>
+        <v>1054</v>
       </c>
       <c r="F114" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G114" t="s">
-        <v>1152</v>
+        <v>1107</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -6783,17 +6887,20 @@
       <c r="B115" t="s">
         <v>410</v>
       </c>
+      <c r="C115" t="s">
+        <v>411</v>
+      </c>
       <c r="D115" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="E115" t="s">
-        <v>282</v>
+        <v>1054</v>
       </c>
       <c r="F115" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G115" t="s">
         <v>410</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -6803,20 +6910,20 @@
       <c r="B116" t="s">
         <v>413</v>
       </c>
-      <c r="C116">
-        <v>1</v>
+      <c r="C116" t="s">
+        <v>414</v>
       </c>
       <c r="D116" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E116" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F116" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G116" t="s">
         <v>413</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -6826,20 +6933,20 @@
       <c r="B117" t="s">
         <v>417</v>
       </c>
-      <c r="C117">
-        <v>1</v>
+      <c r="C117" t="s">
+        <v>418</v>
       </c>
       <c r="D117" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E117" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F117" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G117" t="s">
         <v>417</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -6849,20 +6956,20 @@
       <c r="B118" t="s">
         <v>420</v>
       </c>
-      <c r="C118">
-        <v>1</v>
+      <c r="C118" t="s">
+        <v>421</v>
       </c>
       <c r="D118" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E118" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F118" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G118" t="s">
         <v>420</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -6872,20 +6979,20 @@
       <c r="B119" t="s">
         <v>423</v>
       </c>
-      <c r="C119">
-        <v>1</v>
+      <c r="C119" t="s">
+        <v>424</v>
       </c>
       <c r="D119" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E119" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F119" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G119" t="s">
         <v>423</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -6895,20 +7002,20 @@
       <c r="B120" t="s">
         <v>426</v>
       </c>
-      <c r="C120">
-        <v>1</v>
+      <c r="C120" t="s">
+        <v>427</v>
       </c>
       <c r="D120" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E120" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F120" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G120" t="s">
         <v>426</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -6918,14 +7025,20 @@
       <c r="B121" t="s">
         <v>429</v>
       </c>
+      <c r="C121" t="s">
+        <v>430</v>
+      </c>
       <c r="D121" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E121" t="s">
-        <v>431</v>
+        <v>1074</v>
       </c>
       <c r="F121" t="s">
-        <v>1102</v>
+        <v>1191</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -6935,20 +7048,20 @@
       <c r="B122" t="s">
         <v>433</v>
       </c>
-      <c r="C122">
-        <v>1</v>
+      <c r="C122" t="s">
+        <v>434</v>
       </c>
       <c r="D122" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E122" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F122" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G122" t="s">
         <v>433</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -6958,17 +7071,20 @@
       <c r="B123" t="s">
         <v>436</v>
       </c>
+      <c r="C123" t="s">
+        <v>437</v>
+      </c>
       <c r="D123" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E123" t="s">
-        <v>438</v>
+        <v>1078</v>
       </c>
       <c r="F123" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G123" t="s">
-        <v>1143</v>
+        <v>1098</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -6978,20 +7094,20 @@
       <c r="B124" t="s">
         <v>440</v>
       </c>
-      <c r="C124">
-        <v>1</v>
+      <c r="C124" t="s">
+        <v>441</v>
       </c>
       <c r="D124" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="E124" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F124" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G124" t="s">
         <v>440</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -7001,20 +7117,20 @@
       <c r="B125" t="s">
         <v>443</v>
       </c>
-      <c r="C125">
-        <v>1</v>
+      <c r="C125" t="s">
+        <v>444</v>
       </c>
       <c r="D125" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="E125" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F125" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G125" t="s">
         <v>443</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -7024,20 +7140,20 @@
       <c r="B126" t="s">
         <v>446</v>
       </c>
-      <c r="C126">
-        <v>1</v>
+      <c r="C126" t="s">
+        <v>447</v>
       </c>
       <c r="D126" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="E126" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F126" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G126" t="s">
         <v>446</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -7047,20 +7163,20 @@
       <c r="B127" t="s">
         <v>449</v>
       </c>
-      <c r="C127">
-        <v>1</v>
+      <c r="C127" t="s">
+        <v>450</v>
       </c>
       <c r="D127" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="E127" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F127" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G127" t="s">
         <v>449</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -7070,20 +7186,20 @@
       <c r="B128" t="s">
         <v>452</v>
       </c>
-      <c r="C128">
-        <v>1</v>
+      <c r="C128" t="s">
+        <v>453</v>
       </c>
       <c r="D128" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
       <c r="E128" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F128" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G128" t="s">
         <v>452</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -7093,20 +7209,20 @@
       <c r="B129" t="s">
         <v>455</v>
       </c>
-      <c r="C129">
-        <v>1</v>
+      <c r="C129" t="s">
+        <v>456</v>
       </c>
       <c r="D129" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="E129" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F129" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G129" t="s">
         <v>455</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -7116,20 +7232,20 @@
       <c r="B130" t="s">
         <v>458</v>
       </c>
-      <c r="C130">
-        <v>1</v>
+      <c r="C130" t="s">
+        <v>459</v>
       </c>
       <c r="D130" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="E130" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F130" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G130" t="s">
         <v>458</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -7139,20 +7255,20 @@
       <c r="B131" t="s">
         <v>461</v>
       </c>
-      <c r="C131">
-        <v>1</v>
+      <c r="C131" t="s">
+        <v>462</v>
       </c>
       <c r="D131" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="E131" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F131" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G131" t="s">
         <v>461</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -7162,20 +7278,20 @@
       <c r="B132" t="s">
         <v>464</v>
       </c>
-      <c r="C132">
-        <v>1</v>
+      <c r="C132" t="s">
+        <v>465</v>
       </c>
       <c r="D132" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="E132" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F132" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G132" t="s">
         <v>464</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -7185,20 +7301,20 @@
       <c r="B133" t="s">
         <v>467</v>
       </c>
-      <c r="C133">
-        <v>1</v>
+      <c r="C133" t="s">
+        <v>468</v>
       </c>
       <c r="D133" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="E133" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F133" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G133" t="s">
         <v>467</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -7208,20 +7324,20 @@
       <c r="B134" t="s">
         <v>470</v>
       </c>
-      <c r="C134">
-        <v>1</v>
+      <c r="C134" t="s">
+        <v>471</v>
       </c>
       <c r="D134" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="E134" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F134" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G134" t="s">
         <v>470</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -7231,20 +7347,20 @@
       <c r="B135" t="s">
         <v>473</v>
       </c>
-      <c r="C135">
-        <v>1</v>
+      <c r="C135" t="s">
+        <v>474</v>
       </c>
       <c r="D135" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="E135" t="s">
-        <v>415</v>
+        <v>1074</v>
       </c>
       <c r="F135" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G135" t="s">
         <v>473</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -7254,20 +7370,20 @@
       <c r="B136" t="s">
         <v>476</v>
       </c>
-      <c r="C136">
-        <v>1</v>
+      <c r="C136" t="s">
+        <v>477</v>
       </c>
       <c r="D136" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E136" t="s">
-        <v>478</v>
+        <v>1074</v>
       </c>
       <c r="F136" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G136" t="s">
         <v>476</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -7277,20 +7393,20 @@
       <c r="B137" t="s">
         <v>480</v>
       </c>
-      <c r="C137">
-        <v>1</v>
+      <c r="C137" t="s">
+        <v>481</v>
       </c>
       <c r="D137" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E137" t="s">
-        <v>478</v>
+        <v>1074</v>
       </c>
       <c r="F137" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G137" t="s">
         <v>480</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -7300,20 +7416,20 @@
       <c r="B138" t="s">
         <v>483</v>
       </c>
-      <c r="C138">
-        <v>1</v>
+      <c r="C138" t="s">
+        <v>484</v>
       </c>
       <c r="D138" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E138" t="s">
-        <v>478</v>
+        <v>1074</v>
       </c>
       <c r="F138" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G138" t="s">
         <v>483</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -7323,20 +7439,20 @@
       <c r="B139" t="s">
         <v>486</v>
       </c>
-      <c r="C139">
-        <v>1</v>
+      <c r="C139" t="s">
+        <v>487</v>
       </c>
       <c r="D139" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="E139" t="s">
-        <v>478</v>
+        <v>1074</v>
       </c>
       <c r="F139" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G139" t="s">
         <v>486</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -7346,20 +7462,20 @@
       <c r="B140" t="s">
         <v>489</v>
       </c>
-      <c r="C140">
-        <v>1</v>
+      <c r="C140" t="s">
+        <v>490</v>
       </c>
       <c r="D140" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E140" t="s">
-        <v>491</v>
+        <v>1074</v>
       </c>
       <c r="F140" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G140" t="s">
         <v>489</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -7369,20 +7485,20 @@
       <c r="B141" t="s">
         <v>493</v>
       </c>
-      <c r="C141">
-        <v>1</v>
+      <c r="C141" t="s">
+        <v>494</v>
       </c>
       <c r="D141" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="E141" t="s">
-        <v>478</v>
+        <v>1074</v>
       </c>
       <c r="F141" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G141" t="s">
         <v>493</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -7392,17 +7508,20 @@
       <c r="B142" t="s">
         <v>496</v>
       </c>
+      <c r="C142" t="s">
+        <v>497</v>
+      </c>
       <c r="D142" t="s">
-        <v>497</v>
+        <v>166</v>
       </c>
       <c r="E142" t="s">
-        <v>166</v>
+        <v>1078</v>
       </c>
       <c r="F142" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G142" t="s">
-        <v>1144</v>
+        <v>1099</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -7412,17 +7531,20 @@
       <c r="B143" t="s">
         <v>499</v>
       </c>
+      <c r="C143" t="s">
+        <v>500</v>
+      </c>
       <c r="D143" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E143" t="s">
-        <v>501</v>
+        <v>1054</v>
       </c>
       <c r="F143" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G143" t="s">
         <v>499</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -7432,17 +7554,20 @@
       <c r="B144" t="s">
         <v>503</v>
       </c>
+      <c r="C144" t="s">
+        <v>504</v>
+      </c>
       <c r="D144" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E144" t="s">
-        <v>505</v>
+        <v>1078</v>
       </c>
       <c r="F144" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G144" t="s">
-        <v>1145</v>
+        <v>1100</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -7452,17 +7577,20 @@
       <c r="B145" t="s">
         <v>507</v>
       </c>
+      <c r="C145" t="s">
+        <v>508</v>
+      </c>
       <c r="D145" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E145" t="s">
-        <v>505</v>
+        <v>1078</v>
       </c>
       <c r="F145" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G145" t="s">
-        <v>1146</v>
+        <v>1101</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -7472,17 +7600,20 @@
       <c r="B146" t="s">
         <v>510</v>
       </c>
+      <c r="C146" t="s">
+        <v>511</v>
+      </c>
       <c r="D146" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E146" t="s">
-        <v>512</v>
+        <v>1054</v>
       </c>
       <c r="F146" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G146" t="s">
         <v>510</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -7492,17 +7623,20 @@
       <c r="B147" t="s">
         <v>514</v>
       </c>
+      <c r="C147" t="s">
+        <v>515</v>
+      </c>
       <c r="D147" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E147" t="s">
-        <v>516</v>
+        <v>1074</v>
       </c>
       <c r="F147" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G147" t="s">
-        <v>1119</v>
+        <v>1075</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -7512,17 +7646,20 @@
       <c r="B148" t="s">
         <v>518</v>
       </c>
+      <c r="C148" t="s">
+        <v>519</v>
+      </c>
       <c r="D148" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E148" t="s">
-        <v>520</v>
+        <v>1074</v>
       </c>
       <c r="F148" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G148" t="s">
-        <v>1121</v>
+        <v>1077</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -7532,14 +7669,14 @@
       <c r="B149" t="s">
         <v>522</v>
       </c>
+      <c r="C149" t="s">
+        <v>523</v>
+      </c>
       <c r="D149" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E149" t="s">
-        <v>516</v>
-      </c>
-      <c r="F149" t="s">
-        <v>1102</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -7549,14 +7686,20 @@
       <c r="B150" t="s">
         <v>525</v>
       </c>
+      <c r="C150" t="s">
+        <v>526</v>
+      </c>
       <c r="D150" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E150" t="s">
-        <v>516</v>
+        <v>1074</v>
       </c>
       <c r="F150" t="s">
-        <v>1102</v>
+        <v>1192</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -7566,14 +7709,20 @@
       <c r="B151" t="s">
         <v>528</v>
       </c>
+      <c r="C151" t="s">
+        <v>529</v>
+      </c>
       <c r="D151" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="E151" t="s">
-        <v>516</v>
+        <v>1074</v>
       </c>
       <c r="F151" t="s">
-        <v>1102</v>
+        <v>1192</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -7583,14 +7732,14 @@
       <c r="B152" t="s">
         <v>531</v>
       </c>
+      <c r="C152" t="s">
+        <v>532</v>
+      </c>
       <c r="D152" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="E152" t="s">
-        <v>516</v>
-      </c>
-      <c r="F152" t="s">
-        <v>1102</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -7600,14 +7749,20 @@
       <c r="B153" t="s">
         <v>534</v>
       </c>
+      <c r="C153" t="s">
+        <v>535</v>
+      </c>
       <c r="D153" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="E153" t="s">
-        <v>516</v>
+        <v>1074</v>
       </c>
       <c r="F153" t="s">
-        <v>1102</v>
+        <v>1193</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -7617,14 +7772,20 @@
       <c r="B154" t="s">
         <v>537</v>
       </c>
+      <c r="C154" t="s">
+        <v>538</v>
+      </c>
       <c r="D154" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="E154" t="s">
-        <v>516</v>
+        <v>1074</v>
       </c>
       <c r="F154" t="s">
-        <v>1102</v>
+        <v>1194</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -7634,14 +7795,20 @@
       <c r="B155" t="s">
         <v>540</v>
       </c>
+      <c r="C155" t="s">
+        <v>541</v>
+      </c>
       <c r="D155" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="E155" t="s">
-        <v>516</v>
+        <v>1074</v>
       </c>
       <c r="F155" t="s">
-        <v>1102</v>
+        <v>1195</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -7651,14 +7818,14 @@
       <c r="B156" t="s">
         <v>543</v>
       </c>
+      <c r="C156" t="s">
+        <v>544</v>
+      </c>
       <c r="D156" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="E156" t="s">
-        <v>516</v>
-      </c>
-      <c r="F156" t="s">
-        <v>1102</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -7668,14 +7835,14 @@
       <c r="B157" t="s">
         <v>546</v>
       </c>
+      <c r="C157" t="s">
+        <v>547</v>
+      </c>
       <c r="D157" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="E157" t="s">
-        <v>516</v>
-      </c>
-      <c r="F157" t="s">
-        <v>1102</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -7685,17 +7852,20 @@
       <c r="B158" t="s">
         <v>549</v>
       </c>
+      <c r="C158" t="s">
+        <v>550</v>
+      </c>
       <c r="D158" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E158" t="s">
-        <v>551</v>
+        <v>1054</v>
       </c>
       <c r="F158" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G158" t="s">
         <v>549</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -7705,17 +7875,20 @@
       <c r="B159" t="s">
         <v>553</v>
       </c>
+      <c r="C159" t="s">
+        <v>554</v>
+      </c>
       <c r="D159" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E159" t="s">
-        <v>555</v>
+        <v>1054</v>
       </c>
       <c r="F159" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G159" t="s">
         <v>553</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -7725,14 +7898,14 @@
       <c r="B160" t="s">
         <v>557</v>
       </c>
+      <c r="C160" t="s">
+        <v>558</v>
+      </c>
       <c r="D160" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E160" t="s">
-        <v>559</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1102</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -7742,17 +7915,20 @@
       <c r="B161" t="s">
         <v>561</v>
       </c>
+      <c r="C161" t="s">
+        <v>562</v>
+      </c>
       <c r="D161" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E161" t="s">
-        <v>563</v>
+        <v>1054</v>
       </c>
       <c r="F161" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G161" t="s">
         <v>561</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -7762,17 +7938,20 @@
       <c r="B162" t="s">
         <v>565</v>
       </c>
+      <c r="C162" t="s">
+        <v>566</v>
+      </c>
       <c r="D162" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E162" t="s">
-        <v>567</v>
+        <v>1054</v>
       </c>
       <c r="F162" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G162" t="s">
         <v>565</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -7782,17 +7961,20 @@
       <c r="B163" t="s">
         <v>569</v>
       </c>
+      <c r="C163" t="s">
+        <v>570</v>
+      </c>
       <c r="D163" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E163" t="s">
-        <v>571</v>
+        <v>1054</v>
       </c>
       <c r="F163" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G163" t="s">
         <v>569</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -7802,17 +7984,20 @@
       <c r="B164" t="s">
         <v>573</v>
       </c>
+      <c r="C164" t="s">
+        <v>574</v>
+      </c>
       <c r="D164" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E164" t="s">
-        <v>575</v>
+        <v>1054</v>
       </c>
       <c r="F164" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G164" t="s">
         <v>573</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -7822,17 +8007,20 @@
       <c r="B165" t="s">
         <v>577</v>
       </c>
+      <c r="C165" t="s">
+        <v>578</v>
+      </c>
       <c r="D165" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E165" t="s">
-        <v>579</v>
+        <v>1054</v>
       </c>
       <c r="F165" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G165" t="s">
         <v>577</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -7842,17 +8030,20 @@
       <c r="B166" t="s">
         <v>581</v>
       </c>
+      <c r="C166" t="s">
+        <v>582</v>
+      </c>
       <c r="D166" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E166" t="s">
-        <v>583</v>
+        <v>1054</v>
       </c>
       <c r="F166" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G166" t="s">
         <v>581</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -7862,17 +8053,20 @@
       <c r="B167" t="s">
         <v>585</v>
       </c>
+      <c r="C167" t="s">
+        <v>586</v>
+      </c>
       <c r="D167" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E167" t="s">
-        <v>587</v>
+        <v>1054</v>
       </c>
       <c r="F167" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G167" t="s">
         <v>585</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -7882,17 +8076,20 @@
       <c r="B168" t="s">
         <v>589</v>
       </c>
+      <c r="C168" t="s">
+        <v>590</v>
+      </c>
       <c r="D168" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E168" t="s">
-        <v>591</v>
+        <v>1054</v>
       </c>
       <c r="F168" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G168" t="s">
         <v>589</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -7902,17 +8099,20 @@
       <c r="B169" t="s">
         <v>593</v>
       </c>
+      <c r="C169" t="s">
+        <v>594</v>
+      </c>
       <c r="D169" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="E169" t="s">
-        <v>579</v>
+        <v>1054</v>
       </c>
       <c r="F169" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G169" t="s">
         <v>593</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -7922,17 +8122,20 @@
       <c r="B170" t="s">
         <v>596</v>
       </c>
+      <c r="C170" t="s">
+        <v>597</v>
+      </c>
       <c r="D170" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="E170" t="s">
-        <v>579</v>
+        <v>1054</v>
       </c>
       <c r="F170" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G170" t="s">
         <v>596</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -7942,17 +8145,20 @@
       <c r="B171" t="s">
         <v>599</v>
       </c>
+      <c r="C171" t="s">
+        <v>600</v>
+      </c>
       <c r="D171" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E171" t="s">
-        <v>601</v>
+        <v>1054</v>
       </c>
       <c r="F171" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G171" t="s">
         <v>599</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
@@ -7962,17 +8168,20 @@
       <c r="B172" t="s">
         <v>603</v>
       </c>
+      <c r="C172" t="s">
+        <v>604</v>
+      </c>
       <c r="D172" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E172" t="s">
-        <v>601</v>
+        <v>1054</v>
       </c>
       <c r="F172" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G172" t="s">
         <v>603</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
@@ -7982,17 +8191,20 @@
       <c r="B173" t="s">
         <v>606</v>
       </c>
+      <c r="C173" t="s">
+        <v>607</v>
+      </c>
       <c r="D173" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E173" t="s">
-        <v>608</v>
+        <v>1054</v>
       </c>
       <c r="F173" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G173" t="s">
         <v>606</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
@@ -8002,17 +8214,20 @@
       <c r="B174" t="s">
         <v>610</v>
       </c>
+      <c r="C174" t="s">
+        <v>611</v>
+      </c>
       <c r="D174" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E174" t="s">
-        <v>612</v>
+        <v>1054</v>
       </c>
       <c r="F174" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G174" t="s">
         <v>610</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -8022,17 +8237,20 @@
       <c r="B175" t="s">
         <v>614</v>
       </c>
+      <c r="C175" t="s">
+        <v>615</v>
+      </c>
       <c r="D175" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E175" t="s">
-        <v>616</v>
+        <v>1054</v>
       </c>
       <c r="F175" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G175" t="s">
         <v>614</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
@@ -8042,17 +8260,20 @@
       <c r="B176" t="s">
         <v>618</v>
       </c>
+      <c r="C176" t="s">
+        <v>619</v>
+      </c>
       <c r="D176" t="s">
-        <v>619</v>
+        <v>221</v>
       </c>
       <c r="E176" t="s">
-        <v>221</v>
+        <v>1054</v>
       </c>
       <c r="F176" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G176" t="s">
         <v>618</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
@@ -8062,17 +8283,20 @@
       <c r="B177" t="s">
         <v>621</v>
       </c>
+      <c r="C177" t="s">
+        <v>622</v>
+      </c>
       <c r="D177" t="s">
-        <v>622</v>
+        <v>104</v>
       </c>
       <c r="E177" t="s">
-        <v>104</v>
+        <v>1054</v>
       </c>
       <c r="F177" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G177" t="s">
         <v>621</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
@@ -8082,17 +8306,20 @@
       <c r="B178" t="s">
         <v>624</v>
       </c>
+      <c r="C178" t="s">
+        <v>625</v>
+      </c>
       <c r="D178" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E178" t="s">
-        <v>626</v>
+        <v>1054</v>
       </c>
       <c r="F178" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G178" t="s">
         <v>624</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -8102,17 +8329,20 @@
       <c r="B179" t="s">
         <v>628</v>
       </c>
+      <c r="C179" t="s">
+        <v>629</v>
+      </c>
       <c r="D179" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="E179" t="s">
-        <v>579</v>
+        <v>1054</v>
       </c>
       <c r="F179" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G179" t="s">
         <v>628</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -8122,17 +8352,20 @@
       <c r="B180" t="s">
         <v>631</v>
       </c>
+      <c r="C180" t="s">
+        <v>632</v>
+      </c>
       <c r="D180" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E180" t="s">
-        <v>633</v>
+        <v>1054</v>
       </c>
       <c r="F180" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G180" t="s">
         <v>631</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
@@ -8142,17 +8375,20 @@
       <c r="B181" t="s">
         <v>635</v>
       </c>
+      <c r="C181" t="s">
+        <v>636</v>
+      </c>
       <c r="D181" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E181" t="s">
-        <v>637</v>
+        <v>1054</v>
       </c>
       <c r="F181" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G181" t="s">
         <v>635</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
@@ -8162,17 +8398,20 @@
       <c r="B182" t="s">
         <v>639</v>
       </c>
+      <c r="C182" t="s">
+        <v>640</v>
+      </c>
       <c r="D182" t="s">
-        <v>640</v>
+        <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>181</v>
+        <v>1054</v>
       </c>
       <c r="F182" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G182" t="s">
         <v>639</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -8182,17 +8421,20 @@
       <c r="B183" t="s">
         <v>642</v>
       </c>
+      <c r="C183" t="s">
+        <v>643</v>
+      </c>
       <c r="D183" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E183" t="s">
-        <v>644</v>
+        <v>1054</v>
       </c>
       <c r="F183" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G183" t="s">
         <v>642</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -8202,17 +8444,20 @@
       <c r="B184" t="s">
         <v>646</v>
       </c>
+      <c r="C184" t="s">
+        <v>647</v>
+      </c>
       <c r="D184" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E184" t="s">
-        <v>648</v>
+        <v>1078</v>
       </c>
       <c r="F184" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G184" t="s">
-        <v>1111</v>
+        <v>1067</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
@@ -8222,17 +8467,20 @@
       <c r="B185" t="s">
         <v>650</v>
       </c>
+      <c r="C185" t="s">
+        <v>651</v>
+      </c>
       <c r="D185" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E185" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F185" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G185" t="s">
-        <v>1112</v>
+        <v>1068</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
@@ -8242,17 +8490,20 @@
       <c r="B186" t="s">
         <v>653</v>
       </c>
+      <c r="C186" t="s">
+        <v>654</v>
+      </c>
       <c r="D186" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E186" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F186" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G186" t="s">
-        <v>1113</v>
+        <v>1069</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
@@ -8262,17 +8513,20 @@
       <c r="B187" t="s">
         <v>656</v>
       </c>
+      <c r="C187" t="s">
+        <v>657</v>
+      </c>
       <c r="D187" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E187" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F187" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G187" t="s">
-        <v>1114</v>
+        <v>1070</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
@@ -8282,17 +8536,20 @@
       <c r="B188" t="s">
         <v>659</v>
       </c>
+      <c r="C188" t="s">
+        <v>660</v>
+      </c>
       <c r="D188" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E188" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F188" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G188" t="s">
-        <v>1115</v>
+        <v>1071</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -8302,17 +8559,20 @@
       <c r="B189" t="s">
         <v>662</v>
       </c>
+      <c r="C189" t="s">
+        <v>663</v>
+      </c>
       <c r="D189" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="E189" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F189" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G189" t="s">
-        <v>1124</v>
+        <v>1080</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -8322,17 +8582,17 @@
       <c r="B190" t="s">
         <v>665</v>
       </c>
+      <c r="C190" t="s">
+        <v>666</v>
+      </c>
       <c r="D190" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="E190" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F190" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G190" t="s">
-        <v>1125</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
@@ -8342,17 +8602,20 @@
       <c r="B191" t="s">
         <v>668</v>
       </c>
+      <c r="C191" t="s">
+        <v>669</v>
+      </c>
       <c r="D191" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="E191" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F191" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G191" t="s">
-        <v>1126</v>
+        <v>1082</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -8362,17 +8625,20 @@
       <c r="B192" t="s">
         <v>671</v>
       </c>
+      <c r="C192" t="s">
+        <v>672</v>
+      </c>
       <c r="D192" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E192" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F192" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G192" t="s">
-        <v>1127</v>
+        <v>1083</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
@@ -8382,17 +8648,20 @@
       <c r="B193" t="s">
         <v>674</v>
       </c>
+      <c r="C193" t="s">
+        <v>675</v>
+      </c>
       <c r="D193" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="E193" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F193" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G193" t="s">
-        <v>1128</v>
+        <v>1190</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
@@ -8402,17 +8671,20 @@
       <c r="B194" t="s">
         <v>677</v>
       </c>
+      <c r="C194" t="s">
+        <v>678</v>
+      </c>
       <c r="D194" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="E194" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F194" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G194" t="s">
-        <v>1129</v>
+        <v>1084</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
@@ -8422,17 +8694,20 @@
       <c r="B195" t="s">
         <v>680</v>
       </c>
+      <c r="C195" t="s">
+        <v>681</v>
+      </c>
       <c r="D195" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="E195" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F195" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G195" t="s">
-        <v>1130</v>
+        <v>1085</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -8442,17 +8717,20 @@
       <c r="B196" t="s">
         <v>683</v>
       </c>
+      <c r="C196" t="s">
+        <v>684</v>
+      </c>
       <c r="D196" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="E196" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F196" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1131</v>
+        <v>1086</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -8462,17 +8740,20 @@
       <c r="B197" t="s">
         <v>686</v>
       </c>
+      <c r="C197" t="s">
+        <v>687</v>
+      </c>
       <c r="D197" t="s">
-        <v>687</v>
+        <v>648</v>
       </c>
       <c r="E197" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F197" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G197" t="s">
-        <v>1132</v>
+        <v>1087</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -8482,17 +8763,17 @@
       <c r="B198" t="s">
         <v>689</v>
       </c>
+      <c r="C198" t="s">
+        <v>690</v>
+      </c>
       <c r="D198" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="E198" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F198" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G198" t="s">
-        <v>1133</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -8502,17 +8783,17 @@
       <c r="B199" t="s">
         <v>692</v>
       </c>
+      <c r="C199" t="s">
+        <v>693</v>
+      </c>
       <c r="D199" t="s">
-        <v>693</v>
+        <v>648</v>
       </c>
       <c r="E199" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F199" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G199" t="s">
-        <v>1134</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -8522,17 +8803,20 @@
       <c r="B200" t="s">
         <v>695</v>
       </c>
+      <c r="C200" t="s">
+        <v>696</v>
+      </c>
       <c r="D200" t="s">
-        <v>696</v>
+        <v>648</v>
       </c>
       <c r="E200" t="s">
-        <v>648</v>
+        <v>1076</v>
       </c>
       <c r="F200" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G200" t="s">
-        <v>1135</v>
+        <v>1090</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
@@ -8542,17 +8826,20 @@
       <c r="B201" t="s">
         <v>698</v>
       </c>
+      <c r="C201" t="s">
+        <v>699</v>
+      </c>
       <c r="D201" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E201" t="s">
-        <v>700</v>
+        <v>1054</v>
       </c>
       <c r="F201" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G201" t="s">
         <v>698</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -8562,17 +8849,20 @@
       <c r="B202" t="s">
         <v>702</v>
       </c>
+      <c r="C202" t="s">
+        <v>703</v>
+      </c>
       <c r="D202" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E202" t="s">
-        <v>704</v>
+        <v>1078</v>
       </c>
       <c r="F202" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G202" t="s">
-        <v>1136</v>
+        <v>1091</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -8582,17 +8872,20 @@
       <c r="B203" t="s">
         <v>706</v>
       </c>
+      <c r="C203" t="s">
+        <v>707</v>
+      </c>
       <c r="D203" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E203" t="s">
-        <v>708</v>
+        <v>1054</v>
       </c>
       <c r="F203" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G203" t="s">
         <v>706</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
@@ -8602,17 +8895,20 @@
       <c r="B204" t="s">
         <v>710</v>
       </c>
+      <c r="C204" t="s">
+        <v>711</v>
+      </c>
       <c r="D204" t="s">
-        <v>711</v>
+        <v>181</v>
       </c>
       <c r="E204" t="s">
-        <v>181</v>
+        <v>1054</v>
       </c>
       <c r="F204" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G204" t="s">
         <v>710</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
@@ -8622,17 +8918,20 @@
       <c r="B205" t="s">
         <v>713</v>
       </c>
+      <c r="C205" t="s">
+        <v>714</v>
+      </c>
       <c r="D205" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E205" t="s">
-        <v>715</v>
+        <v>1054</v>
       </c>
       <c r="F205" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G205" t="s">
         <v>713</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
@@ -8642,17 +8941,20 @@
       <c r="B206" t="s">
         <v>717</v>
       </c>
+      <c r="C206" t="s">
+        <v>718</v>
+      </c>
       <c r="D206" t="s">
-        <v>718</v>
+        <v>221</v>
       </c>
       <c r="E206" t="s">
-        <v>221</v>
+        <v>1054</v>
       </c>
       <c r="F206" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G206" t="s">
         <v>717</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -8662,17 +8964,20 @@
       <c r="B207" t="s">
         <v>720</v>
       </c>
+      <c r="C207" t="s">
+        <v>721</v>
+      </c>
       <c r="D207" t="s">
-        <v>721</v>
+        <v>379</v>
       </c>
       <c r="E207" t="s">
-        <v>379</v>
+        <v>1054</v>
       </c>
       <c r="F207" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G207" t="s">
         <v>720</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -8682,17 +8987,20 @@
       <c r="B208" t="s">
         <v>723</v>
       </c>
+      <c r="C208" t="s">
+        <v>724</v>
+      </c>
       <c r="D208" t="s">
-        <v>724</v>
+        <v>247</v>
       </c>
       <c r="E208" t="s">
-        <v>247</v>
+        <v>1054</v>
       </c>
       <c r="F208" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G208" t="s">
-        <v>1110</v>
+        <v>1066</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
@@ -8702,17 +9010,20 @@
       <c r="B209" t="s">
         <v>726</v>
       </c>
+      <c r="C209" t="s">
+        <v>727</v>
+      </c>
       <c r="D209" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E209" t="s">
-        <v>728</v>
+        <v>1054</v>
       </c>
       <c r="F209" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G209" t="s">
         <v>726</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -8722,17 +9033,20 @@
       <c r="B210" t="s">
         <v>730</v>
       </c>
+      <c r="C210" t="s">
+        <v>731</v>
+      </c>
       <c r="D210" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E210" t="s">
-        <v>732</v>
+        <v>1054</v>
       </c>
       <c r="F210" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G210" t="s">
         <v>730</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -8742,17 +9056,20 @@
       <c r="B211" t="s">
         <v>734</v>
       </c>
+      <c r="C211" t="s">
+        <v>735</v>
+      </c>
       <c r="D211" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E211" t="s">
-        <v>736</v>
+        <v>1054</v>
       </c>
       <c r="F211" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G211" t="s">
         <v>734</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
@@ -8762,17 +9079,20 @@
       <c r="B212" t="s">
         <v>738</v>
       </c>
+      <c r="C212" t="s">
+        <v>739</v>
+      </c>
       <c r="D212" t="s">
-        <v>739</v>
+        <v>282</v>
       </c>
       <c r="E212" t="s">
-        <v>282</v>
+        <v>1054</v>
       </c>
       <c r="F212" t="s">
-        <v>1098</v>
-      </c>
-      <c r="G212" t="s">
         <v>738</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
@@ -8782,17 +9102,20 @@
       <c r="B213" t="s">
         <v>741</v>
       </c>
+      <c r="C213" t="s">
+        <v>742</v>
+      </c>
       <c r="D213" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E213" t="s">
-        <v>743</v>
+        <v>1053</v>
       </c>
       <c r="F213" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G213" t="s">
-        <v>1184</v>
+        <v>1139</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
@@ -8802,17 +9125,20 @@
       <c r="B214" t="s">
         <v>745</v>
       </c>
+      <c r="C214" t="s">
+        <v>746</v>
+      </c>
       <c r="D214" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E214" t="s">
-        <v>747</v>
+        <v>1053</v>
       </c>
       <c r="F214" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G214" t="s">
-        <v>1185</v>
+        <v>1140</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
@@ -8822,10 +9148,10 @@
       <c r="B215" t="s">
         <v>749</v>
       </c>
+      <c r="C215" t="s">
+        <v>750</v>
+      </c>
       <c r="D215" t="s">
-        <v>750</v>
-      </c>
-      <c r="E215" t="s">
         <v>751</v>
       </c>
     </row>
@@ -8836,17 +9162,20 @@
       <c r="B216" t="s">
         <v>753</v>
       </c>
+      <c r="C216" t="s">
+        <v>754</v>
+      </c>
       <c r="D216" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E216" t="s">
-        <v>755</v>
+        <v>1053</v>
       </c>
       <c r="F216" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G216" t="s">
-        <v>1156</v>
+        <v>1111</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
@@ -8856,10 +9185,10 @@
       <c r="B217" t="s">
         <v>757</v>
       </c>
+      <c r="C217" t="s">
+        <v>758</v>
+      </c>
       <c r="D217" t="s">
-        <v>758</v>
-      </c>
-      <c r="E217" t="s">
         <v>759</v>
       </c>
     </row>
@@ -8870,17 +9199,20 @@
       <c r="B218" t="s">
         <v>761</v>
       </c>
+      <c r="C218" t="s">
+        <v>762</v>
+      </c>
       <c r="D218" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E218" t="s">
-        <v>763</v>
+        <v>1053</v>
       </c>
       <c r="F218" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G218" t="s">
-        <v>1157</v>
+        <v>1112</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
@@ -8890,17 +9222,20 @@
       <c r="B219" t="s">
         <v>765</v>
       </c>
+      <c r="C219" t="s">
+        <v>766</v>
+      </c>
       <c r="D219" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E219" t="s">
-        <v>763</v>
+        <v>1053</v>
       </c>
       <c r="F219" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G219" t="s">
-        <v>1158</v>
+        <v>1113</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
@@ -8910,17 +9245,20 @@
       <c r="B220" t="s">
         <v>768</v>
       </c>
+      <c r="C220" t="s">
+        <v>769</v>
+      </c>
       <c r="D220" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="E220" t="s">
-        <v>763</v>
+        <v>1053</v>
       </c>
       <c r="F220" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G220" t="s">
-        <v>1159</v>
+        <v>1114</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
@@ -8930,17 +9268,20 @@
       <c r="B221" t="s">
         <v>771</v>
       </c>
+      <c r="C221" t="s">
+        <v>772</v>
+      </c>
       <c r="D221" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="E221" t="s">
-        <v>763</v>
+        <v>1053</v>
       </c>
       <c r="F221" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G221" t="s">
-        <v>1160</v>
+        <v>1115</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
@@ -8950,17 +9291,20 @@
       <c r="B222" t="s">
         <v>774</v>
       </c>
+      <c r="C222" t="s">
+        <v>775</v>
+      </c>
       <c r="D222" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="E222" t="s">
-        <v>763</v>
+        <v>1053</v>
       </c>
       <c r="F222" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G222" t="s">
-        <v>1161</v>
+        <v>1116</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -8970,17 +9314,20 @@
       <c r="B223" t="s">
         <v>777</v>
       </c>
+      <c r="C223" t="s">
+        <v>778</v>
+      </c>
       <c r="D223" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E223" t="s">
-        <v>779</v>
+        <v>1053</v>
       </c>
       <c r="F223" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G223" t="s">
-        <v>1186</v>
+        <v>1141</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -8990,17 +9337,20 @@
       <c r="B224" t="s">
         <v>781</v>
       </c>
+      <c r="C224" t="s">
+        <v>782</v>
+      </c>
       <c r="D224" t="s">
-        <v>782</v>
+        <v>68</v>
       </c>
       <c r="E224" t="s">
-        <v>68</v>
+        <v>1053</v>
       </c>
       <c r="F224" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G224" t="s">
-        <v>1162</v>
+        <v>1117</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -9010,17 +9360,20 @@
       <c r="B225" t="s">
         <v>784</v>
       </c>
+      <c r="C225" t="s">
+        <v>785</v>
+      </c>
       <c r="D225" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E225" t="s">
-        <v>786</v>
+        <v>1053</v>
       </c>
       <c r="F225" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G225" t="s">
-        <v>1176</v>
+        <v>1131</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -9030,17 +9383,20 @@
       <c r="B226" t="s">
         <v>788</v>
       </c>
+      <c r="C226" t="s">
+        <v>789</v>
+      </c>
       <c r="D226" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E226" t="s">
-        <v>790</v>
+        <v>1053</v>
       </c>
       <c r="F226" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G226" t="s">
-        <v>1187</v>
+        <v>1142</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -9050,17 +9406,20 @@
       <c r="B227" t="s">
         <v>792</v>
       </c>
+      <c r="C227" t="s">
+        <v>793</v>
+      </c>
       <c r="D227" t="s">
-        <v>793</v>
+        <v>751</v>
       </c>
       <c r="E227" t="s">
-        <v>751</v>
+        <v>1053</v>
       </c>
       <c r="F227" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G227" t="s">
-        <v>1188</v>
+        <v>1143</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -9070,17 +9429,20 @@
       <c r="B228" t="s">
         <v>795</v>
       </c>
+      <c r="C228" t="s">
+        <v>796</v>
+      </c>
       <c r="D228" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E228" t="s">
-        <v>797</v>
+        <v>1053</v>
       </c>
       <c r="F228" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G228" t="s">
-        <v>1189</v>
+        <v>1144</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -9090,17 +9452,20 @@
       <c r="B229" t="s">
         <v>799</v>
       </c>
+      <c r="C229" t="s">
+        <v>800</v>
+      </c>
       <c r="D229" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E229" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F229" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G229" t="s">
-        <v>1226</v>
+        <v>1181</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -9110,17 +9475,20 @@
       <c r="B230" t="s">
         <v>803</v>
       </c>
+      <c r="C230" t="s">
+        <v>804</v>
+      </c>
       <c r="D230" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E230" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F230" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G230" t="s">
-        <v>1227</v>
+        <v>1182</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -9130,17 +9498,20 @@
       <c r="B231" t="s">
         <v>806</v>
       </c>
+      <c r="C231" t="s">
+        <v>807</v>
+      </c>
       <c r="D231" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E231" t="s">
-        <v>808</v>
+        <v>1053</v>
       </c>
       <c r="F231" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G231" t="s">
-        <v>1163</v>
+        <v>1118</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -9150,17 +9521,20 @@
       <c r="B232" t="s">
         <v>810</v>
       </c>
+      <c r="C232" t="s">
+        <v>811</v>
+      </c>
       <c r="D232" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E232" t="s">
-        <v>808</v>
+        <v>1053</v>
       </c>
       <c r="F232" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G232" t="s">
-        <v>1164</v>
+        <v>1119</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -9170,17 +9544,20 @@
       <c r="B233" t="s">
         <v>813</v>
       </c>
+      <c r="C233" t="s">
+        <v>814</v>
+      </c>
       <c r="D233" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E233" t="s">
-        <v>815</v>
+        <v>1053</v>
       </c>
       <c r="F233" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G233" t="s">
-        <v>1190</v>
+        <v>1145</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -9190,13 +9567,10 @@
       <c r="B234" t="s">
         <v>817</v>
       </c>
-      <c r="C234">
-        <v>1</v>
+      <c r="C234" t="s">
+        <v>818</v>
       </c>
       <c r="D234" t="s">
-        <v>818</v>
-      </c>
-      <c r="E234" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9207,17 +9581,20 @@
       <c r="B235" t="s">
         <v>820</v>
       </c>
+      <c r="C235" t="s">
+        <v>821</v>
+      </c>
       <c r="D235" t="s">
-        <v>821</v>
+        <v>221</v>
       </c>
       <c r="E235" t="s">
-        <v>221</v>
+        <v>1053</v>
       </c>
       <c r="F235" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G235" t="s">
-        <v>1191</v>
+        <v>1146</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -9227,17 +9604,20 @@
       <c r="B236" t="s">
         <v>823</v>
       </c>
+      <c r="C236" t="s">
+        <v>824</v>
+      </c>
       <c r="D236" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E236" t="s">
-        <v>825</v>
+        <v>1053</v>
       </c>
       <c r="F236" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G236" t="s">
-        <v>1192</v>
+        <v>1147</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -9247,17 +9627,20 @@
       <c r="B237" t="s">
         <v>827</v>
       </c>
+      <c r="C237" t="s">
+        <v>828</v>
+      </c>
       <c r="D237" t="s">
-        <v>828</v>
+        <v>790</v>
       </c>
       <c r="E237" t="s">
-        <v>790</v>
+        <v>1053</v>
       </c>
       <c r="F237" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G237" t="s">
-        <v>1193</v>
+        <v>1148</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -9267,17 +9650,20 @@
       <c r="B238" t="s">
         <v>830</v>
       </c>
+      <c r="C238" t="s">
+        <v>831</v>
+      </c>
       <c r="D238" t="s">
-        <v>831</v>
+        <v>170</v>
       </c>
       <c r="E238" t="s">
-        <v>170</v>
+        <v>1053</v>
       </c>
       <c r="F238" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G238" t="s">
-        <v>1165</v>
+        <v>1120</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -9287,17 +9673,20 @@
       <c r="B239" t="s">
         <v>833</v>
       </c>
+      <c r="C239" t="s">
+        <v>834</v>
+      </c>
       <c r="D239" t="s">
-        <v>834</v>
+        <v>751</v>
       </c>
       <c r="E239" t="s">
-        <v>751</v>
+        <v>1053</v>
       </c>
       <c r="F239" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G239" t="s">
-        <v>1194</v>
+        <v>1149</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -9307,13 +9696,10 @@
       <c r="B240" t="s">
         <v>836</v>
       </c>
-      <c r="C240">
-        <v>1</v>
+      <c r="C240" t="s">
+        <v>837</v>
       </c>
       <c r="D240" t="s">
-        <v>837</v>
-      </c>
-      <c r="E240" t="s">
         <v>838</v>
       </c>
     </row>
@@ -9324,17 +9710,20 @@
       <c r="B241" t="s">
         <v>840</v>
       </c>
+      <c r="C241" t="s">
+        <v>841</v>
+      </c>
       <c r="D241" t="s">
-        <v>841</v>
+        <v>801</v>
       </c>
       <c r="E241" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F241" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G241" t="s">
-        <v>1195</v>
+        <v>1150</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -9344,17 +9733,20 @@
       <c r="B242" t="s">
         <v>843</v>
       </c>
+      <c r="C242" t="s">
+        <v>844</v>
+      </c>
       <c r="D242" t="s">
-        <v>844</v>
+        <v>751</v>
       </c>
       <c r="E242" t="s">
-        <v>751</v>
+        <v>1053</v>
       </c>
       <c r="F242" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G242" t="s">
-        <v>1183</v>
+        <v>1138</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -9364,17 +9756,20 @@
       <c r="B243" t="s">
         <v>846</v>
       </c>
+      <c r="C243" t="s">
+        <v>847</v>
+      </c>
       <c r="D243" t="s">
-        <v>847</v>
+        <v>247</v>
       </c>
       <c r="E243" t="s">
-        <v>247</v>
+        <v>1053</v>
       </c>
       <c r="F243" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G243" t="s">
-        <v>1166</v>
+        <v>1121</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -9384,17 +9779,20 @@
       <c r="B244" t="s">
         <v>849</v>
       </c>
+      <c r="C244" t="s">
+        <v>850</v>
+      </c>
       <c r="D244" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E244" t="s">
-        <v>851</v>
+        <v>1053</v>
       </c>
       <c r="F244" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G244" t="s">
-        <v>1167</v>
+        <v>1122</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -9404,17 +9802,20 @@
       <c r="B245" t="s">
         <v>853</v>
       </c>
+      <c r="C245" t="s">
+        <v>854</v>
+      </c>
       <c r="D245" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E245" t="s">
-        <v>855</v>
+        <v>1053</v>
       </c>
       <c r="F245" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G245" t="s">
-        <v>1196</v>
+        <v>1151</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -9424,10 +9825,10 @@
       <c r="B246" t="s">
         <v>857</v>
       </c>
+      <c r="C246" t="s">
+        <v>858</v>
+      </c>
       <c r="D246" t="s">
-        <v>858</v>
-      </c>
-      <c r="E246" t="s">
         <v>859</v>
       </c>
     </row>
@@ -9438,17 +9839,20 @@
       <c r="B247" t="s">
         <v>861</v>
       </c>
+      <c r="C247" t="s">
+        <v>862</v>
+      </c>
       <c r="D247" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E247" t="s">
-        <v>863</v>
+        <v>1053</v>
       </c>
       <c r="F247" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G247" t="s">
-        <v>1197</v>
+        <v>1152</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -9458,17 +9862,20 @@
       <c r="B248" t="s">
         <v>865</v>
       </c>
+      <c r="C248" t="s">
+        <v>866</v>
+      </c>
       <c r="D248" t="s">
-        <v>866</v>
+        <v>801</v>
       </c>
       <c r="E248" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F248" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G248" t="s">
-        <v>1228</v>
+        <v>1183</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -9478,17 +9885,20 @@
       <c r="B249" t="s">
         <v>868</v>
       </c>
+      <c r="C249" t="s">
+        <v>869</v>
+      </c>
       <c r="D249" t="s">
-        <v>869</v>
+        <v>801</v>
       </c>
       <c r="E249" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F249" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G249" t="s">
-        <v>1229</v>
+        <v>1184</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -9498,17 +9908,20 @@
       <c r="B250" t="s">
         <v>871</v>
       </c>
+      <c r="C250" t="s">
+        <v>872</v>
+      </c>
       <c r="D250" t="s">
-        <v>872</v>
+        <v>801</v>
       </c>
       <c r="E250" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F250" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G250" t="s">
-        <v>1230</v>
+        <v>1185</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -9518,17 +9931,20 @@
       <c r="B251" t="s">
         <v>874</v>
       </c>
+      <c r="C251" t="s">
+        <v>875</v>
+      </c>
       <c r="D251" t="s">
-        <v>875</v>
+        <v>801</v>
       </c>
       <c r="E251" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F251" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G251" t="s">
-        <v>1231</v>
+        <v>1186</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -9538,17 +9954,20 @@
       <c r="B252" t="s">
         <v>877</v>
       </c>
+      <c r="C252" t="s">
+        <v>878</v>
+      </c>
       <c r="D252" t="s">
-        <v>878</v>
+        <v>801</v>
       </c>
       <c r="E252" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F252" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G252" t="s">
-        <v>1232</v>
+        <v>1187</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -9558,17 +9977,20 @@
       <c r="B253" t="s">
         <v>880</v>
       </c>
+      <c r="C253" t="s">
+        <v>881</v>
+      </c>
       <c r="D253" t="s">
-        <v>881</v>
+        <v>801</v>
       </c>
       <c r="E253" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F253" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G253" t="s">
-        <v>1233</v>
+        <v>1188</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -9578,17 +10000,20 @@
       <c r="B254" t="s">
         <v>883</v>
       </c>
+      <c r="C254" t="s">
+        <v>884</v>
+      </c>
       <c r="D254" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E254" t="s">
-        <v>885</v>
+        <v>1053</v>
       </c>
       <c r="F254" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G254" t="s">
-        <v>1168</v>
+        <v>1123</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -9598,17 +10023,20 @@
       <c r="B255" t="s">
         <v>887</v>
       </c>
+      <c r="C255" t="s">
+        <v>888</v>
+      </c>
       <c r="D255" t="s">
-        <v>888</v>
+        <v>31</v>
       </c>
       <c r="E255" t="s">
-        <v>31</v>
+        <v>1053</v>
       </c>
       <c r="F255" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G255" t="s">
-        <v>1198</v>
+        <v>1153</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
@@ -9618,17 +10046,20 @@
       <c r="B256" t="s">
         <v>890</v>
       </c>
+      <c r="C256" t="s">
+        <v>891</v>
+      </c>
       <c r="D256" t="s">
-        <v>891</v>
+        <v>296</v>
       </c>
       <c r="E256" t="s">
-        <v>296</v>
+        <v>1053</v>
       </c>
       <c r="F256" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G256" t="s">
-        <v>1153</v>
+        <v>1108</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
@@ -9638,17 +10069,20 @@
       <c r="B257" t="s">
         <v>893</v>
       </c>
+      <c r="C257" t="s">
+        <v>894</v>
+      </c>
       <c r="D257" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E257" t="s">
-        <v>895</v>
+        <v>1053</v>
       </c>
       <c r="F257" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G257" t="s">
-        <v>1169</v>
+        <v>1124</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
@@ -9658,10 +10092,10 @@
       <c r="B258" t="s">
         <v>897</v>
       </c>
+      <c r="C258" t="s">
+        <v>898</v>
+      </c>
       <c r="D258" t="s">
-        <v>898</v>
-      </c>
-      <c r="E258" t="s">
         <v>899</v>
       </c>
     </row>
@@ -9672,17 +10106,20 @@
       <c r="B259" t="s">
         <v>901</v>
       </c>
+      <c r="C259" t="s">
+        <v>902</v>
+      </c>
       <c r="D259" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E259" t="s">
-        <v>903</v>
+        <v>1053</v>
       </c>
       <c r="F259" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G259" t="s">
-        <v>1199</v>
+        <v>1154</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
@@ -9692,10 +10129,10 @@
       <c r="B260" t="s">
         <v>905</v>
       </c>
+      <c r="C260" t="s">
+        <v>906</v>
+      </c>
       <c r="D260" t="s">
-        <v>906</v>
-      </c>
-      <c r="E260" t="s">
         <v>907</v>
       </c>
     </row>
@@ -9706,17 +10143,20 @@
       <c r="B261" t="s">
         <v>909</v>
       </c>
+      <c r="C261" t="s">
+        <v>910</v>
+      </c>
       <c r="D261" t="s">
-        <v>910</v>
+        <v>790</v>
       </c>
       <c r="E261" t="s">
-        <v>790</v>
+        <v>1053</v>
       </c>
       <c r="F261" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1200</v>
+        <v>1155</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
@@ -9726,17 +10166,20 @@
       <c r="B262" t="s">
         <v>912</v>
       </c>
+      <c r="C262" t="s">
+        <v>913</v>
+      </c>
       <c r="D262" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E262" t="s">
-        <v>914</v>
+        <v>1053</v>
       </c>
       <c r="F262" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G262" t="s">
-        <v>1201</v>
+        <v>1156</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
@@ -9746,17 +10189,20 @@
       <c r="B263" t="s">
         <v>916</v>
       </c>
+      <c r="C263" t="s">
+        <v>917</v>
+      </c>
       <c r="D263" t="s">
-        <v>917</v>
+        <v>751</v>
       </c>
       <c r="E263" t="s">
-        <v>751</v>
+        <v>1053</v>
       </c>
       <c r="F263" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G263" t="s">
-        <v>1202</v>
+        <v>1157</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
@@ -9766,17 +10212,20 @@
       <c r="B264" t="s">
         <v>919</v>
       </c>
+      <c r="C264" t="s">
+        <v>920</v>
+      </c>
       <c r="D264" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E264" t="s">
-        <v>921</v>
+        <v>1053</v>
       </c>
       <c r="F264" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G264" t="s">
-        <v>1203</v>
+        <v>1158</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
@@ -9786,17 +10235,20 @@
       <c r="B265" t="s">
         <v>923</v>
       </c>
+      <c r="C265" t="s">
+        <v>924</v>
+      </c>
       <c r="D265" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E265" t="s">
-        <v>925</v>
+        <v>1053</v>
       </c>
       <c r="F265" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G265" t="s">
-        <v>1170</v>
+        <v>1125</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
@@ -9806,17 +10258,20 @@
       <c r="B266" t="s">
         <v>927</v>
       </c>
+      <c r="C266" t="s">
+        <v>928</v>
+      </c>
       <c r="D266" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E266" t="s">
-        <v>929</v>
+        <v>1053</v>
       </c>
       <c r="F266" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G266" t="s">
-        <v>1204</v>
+        <v>1159</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
@@ -9826,17 +10281,20 @@
       <c r="B267" t="s">
         <v>931</v>
       </c>
+      <c r="C267" t="s">
+        <v>932</v>
+      </c>
       <c r="D267" t="s">
-        <v>932</v>
+        <v>790</v>
       </c>
       <c r="E267" t="s">
-        <v>790</v>
+        <v>1053</v>
       </c>
       <c r="F267" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G267" t="s">
-        <v>1205</v>
+        <v>1160</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
@@ -9846,17 +10304,20 @@
       <c r="B268" t="s">
         <v>934</v>
       </c>
+      <c r="C268" t="s">
+        <v>935</v>
+      </c>
       <c r="D268" t="s">
-        <v>935</v>
+        <v>801</v>
       </c>
       <c r="E268" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F268" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G268" t="s">
-        <v>1171</v>
+        <v>1126</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
@@ -9866,17 +10327,20 @@
       <c r="B269" t="s">
         <v>937</v>
       </c>
+      <c r="C269" t="s">
+        <v>938</v>
+      </c>
       <c r="D269" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E269" t="s">
-        <v>939</v>
+        <v>1053</v>
       </c>
       <c r="F269" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G269" t="s">
-        <v>1172</v>
+        <v>1127</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
@@ -9886,17 +10350,20 @@
       <c r="B270" t="s">
         <v>941</v>
       </c>
+      <c r="C270" t="s">
+        <v>942</v>
+      </c>
       <c r="D270" t="s">
-        <v>942</v>
+        <v>790</v>
       </c>
       <c r="E270" t="s">
-        <v>790</v>
+        <v>1053</v>
       </c>
       <c r="F270" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G270" t="s">
-        <v>1206</v>
+        <v>1161</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
@@ -9906,17 +10373,20 @@
       <c r="B271" t="s">
         <v>944</v>
       </c>
+      <c r="C271" t="s">
+        <v>945</v>
+      </c>
       <c r="D271" t="s">
-        <v>945</v>
+        <v>790</v>
       </c>
       <c r="E271" t="s">
-        <v>790</v>
+        <v>1053</v>
       </c>
       <c r="F271" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G271" t="s">
-        <v>1207</v>
+        <v>1162</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
@@ -9926,17 +10396,20 @@
       <c r="B272" t="s">
         <v>947</v>
       </c>
+      <c r="C272" t="s">
+        <v>948</v>
+      </c>
       <c r="D272" t="s">
-        <v>948</v>
+        <v>790</v>
       </c>
       <c r="E272" t="s">
-        <v>790</v>
+        <v>1053</v>
       </c>
       <c r="F272" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G272" t="s">
-        <v>1208</v>
+        <v>1163</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
@@ -9946,17 +10419,20 @@
       <c r="B273" t="s">
         <v>950</v>
       </c>
+      <c r="C273" t="s">
+        <v>951</v>
+      </c>
       <c r="D273" t="s">
-        <v>951</v>
+        <v>801</v>
       </c>
       <c r="E273" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F273" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G273" t="s">
-        <v>1209</v>
+        <v>1164</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
@@ -9966,10 +10442,10 @@
       <c r="B274" t="s">
         <v>953</v>
       </c>
+      <c r="C274" t="s">
+        <v>954</v>
+      </c>
       <c r="D274" t="s">
-        <v>954</v>
-      </c>
-      <c r="E274" t="s">
         <v>751</v>
       </c>
     </row>
@@ -9980,17 +10456,20 @@
       <c r="B275" t="s">
         <v>956</v>
       </c>
+      <c r="C275" t="s">
+        <v>957</v>
+      </c>
       <c r="D275" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E275" t="s">
-        <v>958</v>
+        <v>1053</v>
       </c>
       <c r="F275" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G275" t="s">
-        <v>1210</v>
+        <v>1165</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
@@ -10000,17 +10479,20 @@
       <c r="B276" t="s">
         <v>960</v>
       </c>
+      <c r="C276" t="s">
+        <v>961</v>
+      </c>
       <c r="D276" t="s">
-        <v>961</v>
+        <v>751</v>
       </c>
       <c r="E276" t="s">
-        <v>751</v>
+        <v>1053</v>
       </c>
       <c r="F276" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G276" t="s">
-        <v>1211</v>
+        <v>1166</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
@@ -10020,17 +10502,20 @@
       <c r="B277" t="s">
         <v>963</v>
       </c>
+      <c r="C277" t="s">
+        <v>964</v>
+      </c>
       <c r="D277" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E277" t="s">
-        <v>965</v>
+        <v>1053</v>
       </c>
       <c r="F277" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G277" t="s">
-        <v>1155</v>
+        <v>1110</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
@@ -10040,17 +10525,20 @@
       <c r="B278" t="s">
         <v>967</v>
       </c>
+      <c r="C278" t="s">
+        <v>968</v>
+      </c>
       <c r="D278" t="s">
-        <v>968</v>
+        <v>221</v>
       </c>
       <c r="E278" t="s">
-        <v>221</v>
+        <v>1053</v>
       </c>
       <c r="F278" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G278" t="s">
-        <v>1212</v>
+        <v>1167</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
@@ -10060,17 +10548,20 @@
       <c r="B279" t="s">
         <v>970</v>
       </c>
+      <c r="C279" t="s">
+        <v>971</v>
+      </c>
       <c r="D279" t="s">
-        <v>971</v>
+        <v>751</v>
       </c>
       <c r="E279" t="s">
-        <v>751</v>
+        <v>1053</v>
       </c>
       <c r="F279" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G279" t="s">
-        <v>1213</v>
+        <v>1168</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
@@ -10080,17 +10571,20 @@
       <c r="B280" t="s">
         <v>973</v>
       </c>
+      <c r="C280" t="s">
+        <v>974</v>
+      </c>
       <c r="D280" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E280" t="s">
-        <v>975</v>
+        <v>1053</v>
       </c>
       <c r="F280" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G280" t="s">
-        <v>1214</v>
+        <v>1169</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
@@ -10100,17 +10594,20 @@
       <c r="B281" t="s">
         <v>977</v>
       </c>
+      <c r="C281" t="s">
+        <v>978</v>
+      </c>
       <c r="D281" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E281" t="s">
-        <v>979</v>
+        <v>1053</v>
       </c>
       <c r="F281" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G281" t="s">
-        <v>1154</v>
+        <v>1109</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
@@ -10120,17 +10617,20 @@
       <c r="B282" t="s">
         <v>981</v>
       </c>
+      <c r="C282" t="s">
+        <v>982</v>
+      </c>
       <c r="D282" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E282" t="s">
-        <v>983</v>
+        <v>1053</v>
       </c>
       <c r="F282" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G282" t="s">
-        <v>1215</v>
+        <v>1170</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
@@ -10140,17 +10640,20 @@
       <c r="B283" t="s">
         <v>985</v>
       </c>
+      <c r="C283" t="s">
+        <v>986</v>
+      </c>
       <c r="D283" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E283" t="s">
-        <v>987</v>
+        <v>1053</v>
       </c>
       <c r="F283" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G283" t="s">
-        <v>1173</v>
+        <v>1128</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
@@ -10160,17 +10663,20 @@
       <c r="B284" t="s">
         <v>989</v>
       </c>
+      <c r="C284" t="s">
+        <v>990</v>
+      </c>
       <c r="D284" t="s">
-        <v>990</v>
+        <v>801</v>
       </c>
       <c r="E284" t="s">
-        <v>801</v>
+        <v>1053</v>
       </c>
       <c r="F284" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G284" t="s">
-        <v>1216</v>
+        <v>1171</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
@@ -10180,17 +10686,20 @@
       <c r="B285" t="s">
         <v>992</v>
       </c>
+      <c r="C285" t="s">
+        <v>993</v>
+      </c>
       <c r="D285" t="s">
-        <v>993</v>
+        <v>708</v>
       </c>
       <c r="E285" t="s">
-        <v>708</v>
+        <v>1053</v>
       </c>
       <c r="F285" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G285" t="s">
-        <v>1174</v>
+        <v>1129</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
@@ -10200,17 +10709,20 @@
       <c r="B286" t="s">
         <v>995</v>
       </c>
+      <c r="C286" t="s">
+        <v>996</v>
+      </c>
       <c r="D286" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E286" t="s">
-        <v>997</v>
+        <v>1053</v>
       </c>
       <c r="F286" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G286" t="s">
-        <v>1217</v>
+        <v>1172</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
@@ -10220,17 +10732,20 @@
       <c r="B287" t="s">
         <v>999</v>
       </c>
+      <c r="C287" t="s">
+        <v>1000</v>
+      </c>
       <c r="D287" t="s">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="E287" t="s">
-        <v>790</v>
+        <v>1053</v>
       </c>
       <c r="F287" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G287" t="s">
-        <v>1218</v>
+        <v>1173</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
@@ -10240,17 +10755,20 @@
       <c r="B288" t="s">
         <v>1002</v>
       </c>
+      <c r="C288" t="s">
+        <v>1003</v>
+      </c>
       <c r="D288" t="s">
-        <v>1003</v>
+        <v>247</v>
       </c>
       <c r="E288" t="s">
-        <v>247</v>
+        <v>1053</v>
       </c>
       <c r="F288" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G288" t="s">
-        <v>1175</v>
+        <v>1130</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
@@ -10260,10 +10778,10 @@
       <c r="B289" t="s">
         <v>1005</v>
       </c>
+      <c r="C289" t="s">
+        <v>1006</v>
+      </c>
       <c r="D289" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E289" t="s">
         <v>979</v>
       </c>
     </row>
@@ -10274,17 +10792,20 @@
       <c r="B290" t="s">
         <v>1008</v>
       </c>
+      <c r="C290" t="s">
+        <v>1009</v>
+      </c>
       <c r="D290" t="s">
-        <v>1009</v>
+        <v>979</v>
       </c>
       <c r="E290" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F290" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G290" t="s">
-        <v>1177</v>
+        <v>1132</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
@@ -10294,17 +10815,20 @@
       <c r="B291" t="s">
         <v>1011</v>
       </c>
+      <c r="C291" t="s">
+        <v>1012</v>
+      </c>
       <c r="D291" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="E291" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F291" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G291" t="s">
-        <v>1178</v>
+        <v>1133</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
@@ -10314,17 +10838,20 @@
       <c r="B292" t="s">
         <v>1014</v>
       </c>
+      <c r="C292" t="s">
+        <v>1015</v>
+      </c>
       <c r="D292" t="s">
-        <v>1015</v>
+        <v>979</v>
       </c>
       <c r="E292" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F292" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G292" t="s">
-        <v>1179</v>
+        <v>1134</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
@@ -10334,17 +10861,20 @@
       <c r="B293" t="s">
         <v>1017</v>
       </c>
+      <c r="C293" t="s">
+        <v>1018</v>
+      </c>
       <c r="D293" t="s">
-        <v>1018</v>
+        <v>979</v>
       </c>
       <c r="E293" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F293" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G293" t="s">
-        <v>1180</v>
+        <v>1135</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
@@ -10354,17 +10884,20 @@
       <c r="B294" t="s">
         <v>1020</v>
       </c>
+      <c r="C294" t="s">
+        <v>1021</v>
+      </c>
       <c r="D294" t="s">
-        <v>1021</v>
+        <v>979</v>
       </c>
       <c r="E294" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F294" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G294" t="s">
-        <v>1181</v>
+        <v>1136</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
@@ -10374,17 +10907,20 @@
       <c r="B295" t="s">
         <v>1023</v>
       </c>
+      <c r="C295" t="s">
+        <v>1024</v>
+      </c>
       <c r="D295" t="s">
-        <v>1024</v>
+        <v>979</v>
       </c>
       <c r="E295" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F295" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G295" t="s">
-        <v>1219</v>
+        <v>1174</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
@@ -10394,17 +10930,20 @@
       <c r="B296" t="s">
         <v>1026</v>
       </c>
+      <c r="C296" t="s">
+        <v>1027</v>
+      </c>
       <c r="D296" t="s">
-        <v>1027</v>
+        <v>979</v>
       </c>
       <c r="E296" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F296" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G296" t="s">
-        <v>1220</v>
+        <v>1175</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
@@ -10414,17 +10953,20 @@
       <c r="B297" t="s">
         <v>1029</v>
       </c>
+      <c r="C297" t="s">
+        <v>1030</v>
+      </c>
       <c r="D297" t="s">
-        <v>1030</v>
+        <v>979</v>
       </c>
       <c r="E297" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F297" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G297" t="s">
-        <v>1221</v>
+        <v>1176</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
@@ -10434,17 +10976,20 @@
       <c r="B298" t="s">
         <v>1032</v>
       </c>
+      <c r="C298" t="s">
+        <v>1033</v>
+      </c>
       <c r="D298" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E298" t="s">
-        <v>1034</v>
+        <v>1137</v>
       </c>
       <c r="F298" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G298" t="s">
-        <v>1222</v>
+        <v>1177</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
@@ -10454,17 +10999,20 @@
       <c r="B299" t="s">
         <v>1036</v>
       </c>
+      <c r="C299" t="s">
+        <v>1037</v>
+      </c>
       <c r="D299" t="s">
-        <v>1037</v>
+        <v>979</v>
       </c>
       <c r="E299" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F299" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G299" t="s">
-        <v>1223</v>
+        <v>1178</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
@@ -10474,17 +11022,20 @@
       <c r="B300" t="s">
         <v>1039</v>
       </c>
+      <c r="C300" t="s">
+        <v>1040</v>
+      </c>
       <c r="D300" t="s">
-        <v>1040</v>
+        <v>979</v>
       </c>
       <c r="E300" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F300" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G300" t="s">
-        <v>1154</v>
+        <v>1109</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
@@ -10494,17 +11045,20 @@
       <c r="B301" t="s">
         <v>1042</v>
       </c>
+      <c r="C301" t="s">
+        <v>1043</v>
+      </c>
       <c r="D301" t="s">
-        <v>1043</v>
+        <v>979</v>
       </c>
       <c r="E301" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F301" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G301" t="s">
-        <v>1224</v>
+        <v>1179</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
@@ -10514,393 +11068,25 @@
       <c r="B302" t="s">
         <v>1045</v>
       </c>
+      <c r="C302" t="s">
+        <v>1046</v>
+      </c>
       <c r="D302" t="s">
-        <v>1046</v>
+        <v>979</v>
       </c>
       <c r="E302" t="s">
-        <v>979</v>
+        <v>1137</v>
       </c>
       <c r="F302" t="s">
-        <v>1182</v>
-      </c>
-      <c r="G302" t="s">
-        <v>1225</v>
+        <v>1180</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G302" xr:uid="{88D9C74F-E026-442C-91ED-B641562A4265}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675625BF-166A-4FE9-985B-703CBBF6D68B}">
-  <dimension ref="A1:B45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>745</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>777</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>788</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>792</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>795</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>799</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>803</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>813</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>820</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>823</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>827</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>833</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>840</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>843</v>
-      </c>
-      <c r="B16" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>853</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>861</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>865</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>868</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>871</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>874</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>877</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>880</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>887</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>901</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>909</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>912</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>916</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>919</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>927</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>931</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>941</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>944</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>947</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>950</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>956</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>960</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>967</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>970</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>973</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>981</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>989</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>995</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>999</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>